--- a/docs/StructureDefinition-body-temperature.xlsx
+++ b/docs/StructureDefinition-body-temperature.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-temperature.xlsx
+++ b/docs/StructureDefinition-body-temperature.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-temperature.xlsx
+++ b/docs/StructureDefinition-body-temperature.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-temperature.xlsx
+++ b/docs/StructureDefinition-body-temperature.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="653">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -383,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -484,172 +484,176 @@
     <t>A code representing the the type of device used for this observation.  Should only be used if not implicit in the code found in `Observation.code`.</t>
   </si>
   <si>
+    <t>Observation.extension:measurmentDevice.id</t>
+  </si>
+  <si>
+    <t>Observation.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Observation.extension:measurmentDevice.id</t>
-  </si>
-  <si>
-    <t>Observation.extension.id</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurmentDevice.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurmentDevice.url</t>
+  </si>
+  <si>
+    <t>Observation.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/observation-deviceCode</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurmentDevice.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/device-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurmentDevice.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/vitals/ValueSet/bodyTempMeasurementDeviceVS</t>
+  </si>
+  <si>
+    <t>Observation.extension:MeasurementSetting</t>
+  </si>
+  <si>
+    <t>MeasurementSetting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/MeasurementSettingExt}
+</t>
+  </si>
+  <si>
+    <t>Measurement setting</t>
+  </si>
+  <si>
+    <t>Observation.extension:associatedSituation</t>
+  </si>
+  <si>
+    <t>associatedSituation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/AssociatedSituationExt}
+</t>
+  </si>
+  <si>
+    <t>Associated situation</t>
+  </si>
+  <si>
+    <t>Observation.extension:associatedSituation.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurmentDevice.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurmentDevice.url</t>
-  </si>
-  <si>
-    <t>Observation.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/observation-deviceCode</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurmentDevice.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/device-kind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurmentDevice.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/vitals/ValueSet/bodyTempMeasurementDeviceVS</t>
-  </si>
-  <si>
-    <t>Observation.extension:MeasurementSetting</t>
-  </si>
-  <si>
-    <t>MeasurementSetting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/MeasurementSettingExt}
-</t>
-  </si>
-  <si>
-    <t>Measurement setting</t>
-  </si>
-  <si>
-    <t>The location or setting the subject was in when the measurement was obtained. For example, home, clinic, hospital. etc.</t>
-  </si>
-  <si>
-    <t>Observation.extension:associatedSituation</t>
-  </si>
-  <si>
-    <t>associatedSituation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/AssociatedSituationExt}
-</t>
-  </si>
-  <si>
-    <t>Associated situation</t>
-  </si>
-  <si>
-    <t>Situations that may affect the measurement or assessment.</t>
-  </si>
-  <si>
-    <t>Observation.extension:associatedSituation.id</t>
-  </si>
-  <si>
     <t>Observation.extension:associatedSituation.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension:associatedSituation.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/vitals/StructureDefinition/AssociatedSituationExt</t>
-  </si>
-  <si>
-    <t>Observation.extension:associatedSituation.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Observation.extension:associatedSituation.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/vitals/ValueSet/BodyTempAssociatedSituationVS</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Observation.extension:associatedSituation.url</t>
+  </si>
+  <si>
+    <t>Observation.extension:associatedSituation.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Observation.extension:associatedSituation.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/vitals/ValueSet/BodyTempAssociatedSituationVS</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -657,9 +661,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -701,7 +702,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -730,7 +731,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -806,7 +807,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>value:coding.code}
@@ -837,12 +838,6 @@
     <t>Observation.category.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Observation.category:VSCat.coding</t>
   </si>
   <si>
@@ -1071,7 +1066,7 @@
     <t>This identifies the vital sign result type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1196,7 +1191,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1219,7 +1214,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1275,7 +1270,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {($this as dateTime).toString().length() &gt;= 8}</t>
+vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {$this is dateTime implies $this.toString().length() &gt;= 10}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1318,7 +1313,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1552,7 +1547,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t>obs-6
@@ -1667,7 +1662,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1679,7 +1674,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1707,7 +1702,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1787,7 +1782,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1837,7 +1832,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1870,7 +1865,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1907,7 +1902,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -1929,7 +1924,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -2047,7 +2042,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -2397,7 +2392,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3512,7 +3507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>145</v>
       </c>
@@ -3608,7 +3603,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>144</v>
@@ -3634,10 +3629,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3660,13 +3655,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3717,31 +3712,31 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>20</v>
@@ -3752,10 +3747,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3826,7 +3821,7 @@
         <v>141</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>20</v>
@@ -3835,7 +3830,7 @@
         <v>142</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3870,10 +3865,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3899,13 +3894,13 @@
         <v>107</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3913,49 +3908,49 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>93</v>
@@ -3990,10 +3985,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4016,13 +4011,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4049,36 +4044,36 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AF14" t="s" s="2">
+      <c r="AG14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI14" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>105</v>
@@ -4107,7 +4102,7 @@
         <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>180</v>
@@ -4132,13 +4127,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4187,16 +4182,16 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>105</v>
@@ -4220,7 +4215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>183</v>
       </c>
@@ -4256,7 +4251,7 @@
         <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4316,7 +4311,7 @@
         <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>144</v>
@@ -4340,15 +4335,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>137</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>20</v>
@@ -4370,13 +4365,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4436,7 +4431,7 @@
         <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>144</v>
@@ -4462,10 +4457,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4488,13 +4483,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4545,31 +4540,31 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>20</v>
@@ -4580,21 +4575,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -4609,12 +4604,14 @@
         <v>138</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -4654,7 +4651,7 @@
         <v>141</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>20</v>
@@ -4663,7 +4660,7 @@
         <v>142</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4687,7 +4684,7 @@
         <v>20</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>20</v>
@@ -4698,10 +4695,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4727,13 +4724,13 @@
         <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4741,7 +4738,7 @@
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>20</v>
@@ -4783,7 +4780,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>93</v>
@@ -4818,10 +4815,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4844,13 +4841,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4889,17 +4886,17 @@
         <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4934,10 +4931,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>180</v>
@@ -4962,13 +4959,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="M22" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4995,11 +4992,11 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -5017,7 +5014,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -5052,14 +5049,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5081,13 +5078,13 @@
         <v>138</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>206</v>
@@ -5532,7 +5529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>235</v>
       </c>
@@ -5680,7 +5677,7 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>248</v>
@@ -5772,7 +5769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>257</v>
       </c>
@@ -5802,7 +5799,7 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>248</v>
@@ -5924,13 +5921,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5981,31 +5978,31 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
@@ -6023,7 +6020,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -6045,13 +6042,13 @@
         <v>138</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6092,7 +6089,7 @@
         <v>141</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>20</v>
@@ -6101,7 +6098,7 @@
         <v>142</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -6125,7 +6122,7 @@
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -6134,12 +6131,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6162,19 +6159,19 @@
         <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -6223,7 +6220,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -6244,10 +6241,10 @@
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -6258,10 +6255,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6284,13 +6281,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6341,31 +6338,31 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -6376,14 +6373,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6405,13 +6402,13 @@
         <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6452,7 +6449,7 @@
         <v>141</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>20</v>
@@ -6461,7 +6458,7 @@
         <v>142</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6485,7 +6482,7 @@
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -6494,12 +6491,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6525,23 +6522,23 @@
         <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>20</v>
@@ -6583,7 +6580,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6604,10 +6601,10 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6618,10 +6615,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6644,16 +6641,16 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6703,7 +6700,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6724,24 +6721,24 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="B37" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6767,21 +6764,21 @@
         <v>113</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>20</v>
@@ -6823,7 +6820,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6844,10 +6841,10 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6858,10 +6855,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6884,17 +6881,17 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6943,7 +6940,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6964,10 +6961,10 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6978,10 +6975,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7004,19 +7001,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -7065,7 +7062,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -7086,10 +7083,10 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -7100,10 +7097,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7126,19 +7123,19 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -7187,7 +7184,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -7208,28 +7205,28 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP40" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AN40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="B41" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7248,19 +7245,19 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -7288,10 +7285,10 @@
         <v>181</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -7309,7 +7306,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>93</v>
@@ -7324,30 +7321,30 @@
         <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AP41" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7370,13 +7367,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7427,31 +7424,31 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -7462,14 +7459,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7491,13 +7488,13 @@
         <v>138</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7538,7 +7535,7 @@
         <v>141</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>20</v>
@@ -7547,7 +7544,7 @@
         <v>142</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7571,7 +7568,7 @@
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -7582,10 +7579,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7608,19 +7605,19 @@
         <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7657,7 +7654,7 @@
         <v>20</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
@@ -7667,7 +7664,7 @@
         <v>142</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7688,10 +7685,10 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7702,13 +7699,13 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>20</v>
@@ -7730,19 +7727,19 @@
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7791,7 +7788,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7812,10 +7809,10 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7826,10 +7823,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7852,13 +7849,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7909,31 +7906,31 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7944,14 +7941,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7973,13 +7970,13 @@
         <v>138</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8020,7 +8017,7 @@
         <v>141</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>20</v>
@@ -8029,7 +8026,7 @@
         <v>142</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -8053,7 +8050,7 @@
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -8064,10 +8061,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8093,23 +8090,23 @@
         <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>20</v>
@@ -8151,7 +8148,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8172,10 +8169,10 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -8186,10 +8183,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8212,16 +8209,16 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8271,7 +8268,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8292,10 +8289,10 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -8306,10 +8303,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8335,21 +8332,21 @@
         <v>113</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>20</v>
@@ -8391,7 +8388,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8412,10 +8409,10 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -8426,10 +8423,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8452,17 +8449,17 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -8511,7 +8508,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8532,10 +8529,10 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -8546,10 +8543,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8572,19 +8569,19 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8633,7 +8630,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8654,10 +8651,10 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8668,10 +8665,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8694,19 +8691,19 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8755,7 +8752,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8776,10 +8773,10 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8788,12 +8785,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8816,19 +8813,19 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8877,7 +8874,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8892,19 +8889,19 @@
         <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>20</v>
@@ -8912,10 +8909,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8938,16 +8935,16 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8997,7 +8994,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -9018,13 +9015,13 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>20</v>
@@ -9032,14 +9029,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -9058,19 +9055,19 @@
         <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -9119,7 +9116,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9134,34 +9131,34 @@
         <v>105</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AP56" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AO56" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="B57" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9180,19 +9177,19 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -9241,7 +9238,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9250,25 +9247,25 @@
         <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AJ57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>20</v>
@@ -9276,10 +9273,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9302,16 +9299,16 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9361,7 +9358,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9382,13 +9379,13 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>20</v>
@@ -9396,10 +9393,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9422,17 +9419,17 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9481,7 +9478,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9496,19 +9493,19 @@
         <v>105</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>20</v>
@@ -9516,10 +9513,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9542,19 +9539,19 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9591,17 +9588,17 @@
         <v>20</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9610,7 +9607,7 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>105</v>
@@ -9619,30 +9616,30 @@
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP60" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AN60" t="s" s="2">
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AO60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP60" t="s" s="2">
+      <c r="B61" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>436</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>20</v>
@@ -9664,19 +9661,19 @@
         <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9725,7 +9722,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9734,7 +9731,7 @@
         <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>105</v>
@@ -9743,27 +9740,27 @@
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP61" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>436</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9786,13 +9783,13 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9843,31 +9840,31 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
@@ -9878,14 +9875,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9907,13 +9904,13 @@
         <v>138</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9954,7 +9951,7 @@
         <v>141</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>20</v>
@@ -9963,7 +9960,7 @@
         <v>142</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9987,7 +9984,7 @@
         <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>20</v>
@@ -9996,12 +9993,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10024,19 +10021,19 @@
         <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -10085,7 +10082,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -10106,10 +10103,10 @@
         <v>20</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>20</v>
@@ -10120,10 +10117,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10149,20 +10146,20 @@
         <v>113</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q65" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>20</v>
@@ -10186,28 +10183,28 @@
         <v>240</v>
       </c>
       <c r="Y65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10228,24 +10225,24 @@
         <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AN65" t="s" s="2">
+      <c r="B66" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10268,17 +10265,17 @@
         <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -10327,7 +10324,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -10348,24 +10345,24 @@
         <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AN66" t="s" s="2">
+      <c r="B67" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10391,72 +10388,72 @@
         <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI67" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>105</v>
@@ -10468,24 +10465,24 @@
         <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AN67" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10511,16 +10508,16 @@
         <v>113</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="O68" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10549,7 +10546,7 @@
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>20</v>
@@ -10567,7 +10564,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10588,10 +10585,10 @@
         <v>20</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>20</v>
@@ -10600,12 +10597,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10628,19 +10625,19 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -10668,37 +10665,37 @@
         <v>181</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI69" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>105</v>
@@ -10713,7 +10710,7 @@
         <v>136</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>20</v>
@@ -10724,14 +10721,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10750,19 +10747,19 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
@@ -10791,7 +10788,7 @@
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>20</v>
@@ -10809,7 +10806,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10827,27 +10824,27 @@
         <v>20</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AO70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP70" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>508</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10870,19 +10867,19 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>20</v>
@@ -10931,7 +10928,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10952,24 +10949,24 @@
         <v>20</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="AN71" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>517</v>
-      </c>
       <c r="B72" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10992,16 +10989,16 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11031,7 +11028,7 @@
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>20</v>
@@ -11049,7 +11046,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -11067,27 +11064,27 @@
         <v>20</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AO72" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP72" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>525</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11110,19 +11107,19 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -11147,13 +11144,13 @@
         <v>20</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>20</v>
@@ -11171,7 +11168,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11192,10 +11189,10 @@
         <v>20</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>20</v>
@@ -11206,10 +11203,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11232,16 +11229,16 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11291,7 +11288,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11309,27 +11306,27 @@
         <v>20</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AO74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP74" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>543</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11352,16 +11349,16 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11411,7 +11408,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11429,27 +11426,27 @@
         <v>20</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AO75" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP75" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>552</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11472,19 +11469,19 @@
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>20</v>
@@ -11533,7 +11530,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11545,19 +11542,19 @@
         <v>20</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>20</v>
@@ -11568,10 +11565,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11594,13 +11591,13 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11651,31 +11648,31 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>20</v>
@@ -11686,14 +11683,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11715,13 +11712,13 @@
         <v>138</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11771,7 +11768,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11795,7 +11792,7 @@
         <v>20</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>20</v>
@@ -11806,14 +11803,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11835,13 +11832,13 @@
         <v>138</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>206</v>
@@ -11893,7 +11890,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11928,10 +11925,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11954,13 +11951,13 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12011,7 +12008,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -12020,7 +12017,7 @@
         <v>93</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>105</v>
@@ -12032,10 +12029,10 @@
         <v>20</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>20</v>
@@ -12046,10 +12043,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12072,13 +12069,13 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12129,7 +12126,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -12138,7 +12135,7 @@
         <v>93</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>105</v>
@@ -12150,10 +12147,10 @@
         <v>20</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>20</v>
@@ -12164,10 +12161,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12190,19 +12187,19 @@
         <v>20</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N82" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>20</v>
@@ -12230,10 +12227,10 @@
         <v>117</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>20</v>
@@ -12251,7 +12248,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -12269,13 +12266,13 @@
         <v>20</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>20</v>
@@ -12286,10 +12283,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12312,19 +12309,19 @@
         <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>20</v>
@@ -12349,13 +12346,13 @@
         <v>20</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>20</v>
@@ -12373,7 +12370,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12391,13 +12388,13 @@
         <v>20</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>20</v>
@@ -12408,10 +12405,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12434,17 +12431,17 @@
         <v>20</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>20</v>
@@ -12493,7 +12490,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12517,7 +12514,7 @@
         <v>20</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>20</v>
@@ -12528,10 +12525,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12554,13 +12551,13 @@
         <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12611,7 +12608,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12632,10 +12629,10 @@
         <v>20</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>20</v>
@@ -12646,10 +12643,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12672,16 +12669,16 @@
         <v>94</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12731,7 +12728,7 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12752,10 +12749,10 @@
         <v>20</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>20</v>
@@ -12766,10 +12763,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12792,16 +12789,16 @@
         <v>94</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12851,7 +12848,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12872,10 +12869,10 @@
         <v>20</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>20</v>
@@ -12884,12 +12881,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12912,19 +12909,19 @@
         <v>94</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="O88" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>20</v>
@@ -12973,7 +12970,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -12985,19 +12982,19 @@
         <v>20</v>
       </c>
       <c r="AJ88" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>20</v>
@@ -13008,10 +13005,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13034,13 +13031,13 @@
         <v>20</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13091,31 +13088,31 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>20</v>
@@ -13126,14 +13123,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13155,13 +13152,13 @@
         <v>138</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13211,7 +13208,7 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13235,7 +13232,7 @@
         <v>20</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>20</v>
@@ -13246,14 +13243,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13275,13 +13272,13 @@
         <v>138</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>206</v>
@@ -13333,7 +13330,7 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13366,12 +13363,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13394,19 +13391,19 @@
         <v>94</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="N92" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="O92" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>20</v>
@@ -13434,10 +13431,10 @@
         <v>181</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>20</v>
@@ -13455,7 +13452,7 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>93</v>
@@ -13473,27 +13470,27 @@
         <v>20</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AM92" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AO92" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AN92" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="AP92" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13516,19 +13513,19 @@
         <v>94</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="M93" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>639</v>
-      </c>
       <c r="O93" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>20</v>
@@ -13553,40 +13550,40 @@
         <v>20</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="Y93" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI93" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>105</v>
@@ -13595,27 +13592,27 @@
         <v>20</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AM93" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP93" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AN93" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP93" t="s" s="2">
-        <v>436</v>
-      </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13638,19 +13635,19 @@
         <v>20</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="M94" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>647</v>
-      </c>
       <c r="O94" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>20</v>
@@ -13678,10 +13675,10 @@
         <v>181</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>20</v>
@@ -13699,7 +13696,7 @@
         <v>20</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13708,7 +13705,7 @@
         <v>93</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>105</v>
@@ -13723,7 +13720,7 @@
         <v>136</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>20</v>
@@ -13734,14 +13731,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13760,19 +13757,19 @@
         <v>20</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>20</v>
@@ -13800,10 +13797,10 @@
         <v>181</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>20</v>
@@ -13821,7 +13818,7 @@
         <v>20</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13839,27 +13836,27 @@
         <v>20</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AM95" t="s" s="2">
+      <c r="AO95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP95" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP95" t="s" s="2">
-        <v>508</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13885,16 +13882,16 @@
         <v>20</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>20</v>
@@ -13943,7 +13940,7 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -13964,10 +13961,10 @@
         <v>20</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>20</v>
@@ -13978,12 +13975,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP96">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-body-temperature.xlsx
+++ b/docs/StructureDefinition-body-temperature.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-temperature.xlsx
+++ b/docs/StructureDefinition-body-temperature.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-temperature.xlsx
+++ b/docs/StructureDefinition-body-temperature.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-temperature.xlsx
+++ b/docs/StructureDefinition-body-temperature.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-body-temperature.xlsx
+++ b/docs/StructureDefinition-body-temperature.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
